--- a/data/excel/questcfg.xlsx
+++ b/data/excel/questcfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -41,13 +41,16 @@
     <t>QuestType</t>
   </si>
   <si>
-    <t>ConditionTemplates</t>
-  </si>
-  <si>
-    <t>ProgressTemplate</t>
-  </si>
-  <si>
-    <t>Rewards</t>
+    <t>ConditionTemplates
+#Field=no</t>
+  </si>
+  <si>
+    <t>ProgressTemplate
+#Field=CfgId_Arg</t>
+  </si>
+  <si>
+    <t>Rewards
+#Field=full</t>
   </si>
   <si>
     <t>NextQuests</t>
@@ -59,22 +62,29 @@
     <t>Detail</t>
   </si>
   <si>
+    <t>##comment</t>
+  </si>
+  <si>
     <t>升到5级</t>
   </si>
   <si>
-    <t>CfgId_1#Arg_5</t>
+    <t>1_5</t>
   </si>
   <si>
     <t>CfgId_1#Num_2</t>
   </si>
   <si>
+    <t>k1_v1;k2_v2
+k3_v3</t>
+  </si>
+  <si>
     <t>升级任务示例</t>
   </si>
   <si>
     <t>5场战斗</t>
   </si>
   <si>
-    <t>CfgId_2#Arg_5</t>
+    <t>2_5</t>
   </si>
   <si>
     <t>CfgId_2#Num_3</t>
@@ -86,7 +96,7 @@
     <t>5场PVP</t>
   </si>
   <si>
-    <t>CfgId_3#Arg_5</t>
+    <t>3_5</t>
   </si>
   <si>
     <t>CfgId_1#Num_5;CfgId_3#Num_1</t>
@@ -98,10 +108,10 @@
     <t>赢5场PVP</t>
   </si>
   <si>
-    <t>CfgId_1#Args_1</t>
-  </si>
-  <si>
-    <t>CfgId_4#Arg_5</t>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>4_5</t>
   </si>
   <si>
     <t>CfgId_1#Num_5;CfgId_4#Num_2</t>
@@ -113,10 +123,11 @@
     <t>赢5场指定条件的PVP</t>
   </si>
   <si>
-    <t>CfgId_5#Arg_5</t>
-  </si>
-  <si>
-    <t>CfgId_1#Num_5;CfgId_4#Num_3</t>
+    <t>5_5</t>
+  </si>
+  <si>
+    <t>CfgId_1#Num_5
+CfgId_2#Num_1;CfgId_4#Num_3</t>
   </si>
   <si>
     <t>赢5场指定条件的PVP,演示复杂的数值比较接口</t>
@@ -125,7 +136,7 @@
     <t>累充礼包</t>
   </si>
   <si>
-    <t>CfgId_6#Arg_100</t>
+    <t>6_100</t>
   </si>
   <si>
     <t>活动2子任务:累计充值达到100</t>
@@ -134,7 +145,7 @@
     <t>3日目标第1天</t>
   </si>
   <si>
-    <t>CfgId_2#Args_1</t>
+    <t>2_1</t>
   </si>
   <si>
     <t>CfgId_1#Num_1</t>
@@ -146,7 +157,7 @@
     <t>3日目标第2天</t>
   </si>
   <si>
-    <t>CfgId_1#Arg_10</t>
+    <t>1_10</t>
   </si>
   <si>
     <t>活动3子任务:3日目标第2天,等级升到10级</t>
@@ -155,7 +166,7 @@
     <t>3日目标第3天</t>
   </si>
   <si>
-    <t>CfgId_4#Arg_20</t>
+    <t>4_20</t>
   </si>
   <si>
     <t>CfgId_1#Num_3</t>
@@ -167,7 +178,7 @@
     <t>在线1分钟</t>
   </si>
   <si>
-    <t>CfgId_7#Arg_1</t>
+    <t>7_1</t>
   </si>
   <si>
     <t>活动4子任务:在线1分钟</t>
@@ -176,7 +187,7 @@
     <t>在线5分钟</t>
   </si>
   <si>
-    <t>CfgId_7#Arg_5</t>
+    <t>7_5</t>
   </si>
   <si>
     <t>CfgId_1#Num_5</t>
@@ -188,7 +199,7 @@
     <t>在线10分钟</t>
   </si>
   <si>
-    <t>CfgId_7#Arg_7</t>
+    <t>7_7</t>
   </si>
   <si>
     <t>CfgId_1#Num_10</t>
@@ -819,9 +830,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1356,26 +1370,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="9" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="32" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,13 +1403,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1407,325 +1422,333 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
-      <c r="B2">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="2:10">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" ht="27" spans="2:10">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7">
-        <v>20001</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>40001</v>
+        <v>30003</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11">
-        <v>40002</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>40002</v>
+      </c>
+      <c r="J12" t="s">
         <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>40003</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>40003</v>
+      </c>
+      <c r="J13" t="s">
         <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>60001</v>
+        <v>40003</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>60003</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/questcfg.xlsx
+++ b/data/excel/questcfg.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
-  <si>
-    <t>##var</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>CfgId</t>
   </si>
@@ -62,10 +59,22 @@
     <t>Detail</t>
   </si>
   <si>
-    <t>##comment</t>
+    <t>#注释行</t>
+  </si>
+  <si>
+    <t>以_作为分隔符,按照字段顺序进行赋值,适用于字段少的结构简单的message</t>
+  </si>
+  <si>
+    <t>解析时会按照表头指定的字段名进行赋值</t>
+  </si>
+  <si>
+    <t>以Field1_v1#Field2_v2的格式,按照字段名进行赋值</t>
   </si>
   <si>
     <t>升到5级</t>
+  </si>
+  <si>
+    <t>1_2</t>
   </si>
   <si>
     <t>1_5</t>
@@ -1370,27 +1379,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="62.25" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:10">
+    <row r="1" ht="32" customHeight="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1408,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1409,7 +1417,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1418,337 +1426,346 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" ht="60" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>10</v>
+    <row r="3" ht="27" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="2:10">
-      <c r="B3">
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>20001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>30001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>30002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
+      <c r="I10" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>30003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>40001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>40002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="2:10">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>40002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>40003</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8">
-        <v>20001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>40003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9">
-        <v>30001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>60001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10">
-        <v>30002</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>60002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11">
-        <v>30003</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11">
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>60003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12">
-        <v>40001</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>40002</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13">
-        <v>40002</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <v>40003</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14">
-        <v>40003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15">
-        <v>60001</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16">
-        <v>60002</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F17" t="s">
         <v>59</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17">
-        <v>60003</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
+      <c r="I17" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/questcfg.xlsx
+++ b/data/excel/questcfg.xlsx
@@ -53,7 +53,8 @@
     <t>NextQuests</t>
   </si>
   <si>
-    <t>Properties</t>
+    <t>Properties
+#Format=json</t>
   </si>
   <si>
     <t>Detail</t>
@@ -83,8 +84,7 @@
     <t>CfgId_1#Num_2</t>
   </si>
   <si>
-    <t>k1_v1;k2_v2
-k3_v3</t>
+    <t>{"k1": "v1","k2": "v2","k3": "v3"}</t>
   </si>
   <si>
     <t>升级任务示例</t>
@@ -839,9 +839,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1382,7 +1385,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1394,7 +1397,7 @@
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="30.375" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1420,7 +1423,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">

--- a/data/excel/questcfg.xlsx
+++ b/data/excel/questcfg.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="questcfg" sheetId="1" r:id="rId1"/>
+    <sheet name="QuestCfg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>CfgId</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Detail</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>#注释行</t>
@@ -839,12 +845,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1382,10 +1385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1423,352 +1426,381 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:6">
+    <row r="2" ht="60" customHeight="1" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" ht="27" spans="1:9">
-      <c r="A3">
+    <row r="4" ht="27" spans="1:9">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:9">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" ht="27" spans="1:9">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>20001</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>40001</v>
+        <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
         <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12">
-        <v>40002</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>40002</v>
+      </c>
+      <c r="I13" t="s">
         <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13">
-        <v>40003</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>40003</v>
+      </c>
+      <c r="I14" t="s">
         <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>60001</v>
+        <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>60003</v>
+        <v>60002</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>60003</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/questcfg.xlsx
+++ b/data/excel/questcfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>CfgId</t>
   </si>
@@ -47,7 +47,7 @@
   </si>
   <si>
     <t>Rewards
-#Field=full</t>
+#Field=full#Ref=ItemCfg</t>
   </si>
   <si>
     <t>NextQuests</t>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>随机任务3</t>
+  </si>
+  <si>
+    <t>CfgId_4#Num_10</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1797,7 +1800,7 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
         <v>65</v>

--- a/data/excel/questcfg.xlsx
+++ b/data/excel/questcfg.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>CfgId</t>
   </si>
@@ -81,16 +81,10 @@
     <t>升到5级</t>
   </si>
   <si>
-    <t>1_2</t>
-  </si>
-  <si>
     <t>1_5</t>
   </si>
   <si>
     <t>CfgId_1#Num_2</t>
-  </si>
-  <si>
-    <t>{"k1": "v1","k2": "v2","k3": "v3"}</t>
   </si>
   <si>
     <t>升级任务示例</t>
@@ -1391,7 +1385,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1479,7 +1473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1489,20 +1483,16 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4"/>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1510,19 +1500,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1530,19 +1520,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1550,22 +1540,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:9">
@@ -1573,22 +1563,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1596,19 +1586,19 @@
         <v>20001</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1616,22 +1606,22 @@
         <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1639,22 +1629,22 @@
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1662,22 +1652,22 @@
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1685,22 +1675,22 @@
         <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>40002</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1708,22 +1698,22 @@
         <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>40003</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1731,19 +1721,19 @@
         <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
         <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1751,19 +1741,19 @@
         <v>60001</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1771,19 +1761,19 @@
         <v>60002</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1791,19 +1781,19 @@
         <v>60003</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/questcfg.xlsx
+++ b/data/excel/questcfg.xlsx
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1483,7 +1483,6 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4"/>
       <c r="E4" t="s">
         <v>16</v>
       </c>
